--- a/LYtest/47都道府県IDOKEIDO.xlsx
+++ b/LYtest/47都道府県IDOKEIDO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\204061\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\204014\git_test\test\LYtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01F081AD-9959-4C20-97A1-067B5255F978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEF5CE8-F1BC-4BB6-8D53-5AAD26F678C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="12075" xr2:uid="{C21807DF-5A4B-4BB0-859B-E3AFA54EFF4F}"/>
   </bookViews>
